--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\k-shortest-path-visualization-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8A7990-4759-49FC-8A96-534B75DD7CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECE67B2-4858-472B-AAE7-52182C8CF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="Alibaba- BTN2 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>LINESTRING (106.6560358 10.7778896, 106.6561196 10.7779083, 106.6562596 10.7780334, 106.6564003 10.7781597, 106.6565919 10.7783381, 106.6568009 10.778577, 106.6568832 10.7786714, 106.6569674 10.7787605, 106.6571359 10.778938, 106.6574642 10.7793056, 106.6576582 10.7795251, 106.6579407 10.7798368, 106.6583734 10.7803017, 106.6587759 10.7807603)</t>
   </si>
@@ -43,9 +43,6 @@
     <t>LINESTRING (106.6688963 10.7598514, 106.6706673 10.7623758, 106.6740166 10.7671416, 106.6743695 10.7677038)</t>
   </si>
   <si>
-    <t>LINESTRING (106.6599314 10.7638836, 106.6671112 10.7676909)</t>
-  </si>
-  <si>
     <t>LINESTRING (106.6678592 10.7682218, 106.6684375 10.7679682, 106.6743695 10.7677038)</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>LINESTRING (106.6743695 10.7677038, 106.6730211 10.7709267)</t>
   </si>
   <si>
-    <t>LINESTRING (106.6671112 10.7676909, 106.6698061 10.7691337, 106.6707556 10.7697232)</t>
-  </si>
-  <si>
     <t>LINESTRING (106.6707556 10.7697232, 106.6684126 10.7739895, 106.6674035 10.775555, 106.6655278 10.7779042)</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>LINESTRING (106.6707556 10.7697232, 106.6730211 10.7709267)</t>
   </si>
   <si>
-    <t>LINESTRING (106.6698061 10.7691337, 106.6707556 10.7697232)</t>
-  </si>
-  <si>
     <t>LINESTRING (106.6721033 10.7829304, 106.6712905 10.7833519, 106.6707273 10.7836681, 106.6692722 10.784427, 106.6681202 10.7850382, 106.6674724 10.7853847, 106.6661957 10.786079, 106.664611 10.786922)</t>
   </si>
   <si>
@@ -296,12 +287,45 @@
   </si>
   <si>
     <t>LINESTRING (106.6615133 10.7583915, 106.6688963 10.7598514)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6908026 10.7641975, 106.6913122 10.7643951, 106.6916984 10.7645532, 106.6921437 10.7647245, 106.6923314 10.764569)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6921437 10.7647245, 106.6922629 10.7647945, 106.6923353 10.7648261, 106.6924399 10.7648367, 106.6925686 10.764842)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6913343 10.7662223, 106.6930596 10.7669878, 106.6940118 10.7674357)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6940118 10.7674357, 106.6944743 10.7676544, 106.6947224 10.7677677, 106.6949852 10.7678758, 106.6950837 10.7679157, 106.6951582 10.7679413, 106.6952041 10.767945, 106.6952284 10.767971, 106.6952974 10.7680593, 106.6953075 10.7680731, 106.6953656 10.7680191)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6980208 10.7725168, 106.6975382 10.7722206)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6980208 10.7725168, 106.6983845 10.771998)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6980208 10.7725168, 106.6984918 10.7727937)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6980208 10.7725168, 106.6976478 10.7731469)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6975382 10.7722206, 106.6964462 10.7715361)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6959959 10.7720987, 106.6966987 10.7712226)</t>
+  </si>
+  <si>
+    <t>LINESTRING (106.6947346 10.7712597, 106.6955851 10.7712332, 106.6958573 10.7712161, 106.696324 10.7712227, 106.6965534 10.7712029, 106.6966987 10.7712226)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1135,23 +1159,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -1161,7 +1185,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -1176,312 +1200,312 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -1496,117 +1520,157 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A186">
-    <sortCondition ref="A1:A186"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A196">
+    <sortCondition ref="A1:A196"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
